--- a/legislator/property/output/normal/李桐豪_2012-04-25_財產申報表_tmpe99a1.xlsx
+++ b/legislator/property/output/normal/李桐豪_2012-04-25_財產申報表_tmpe99a1.xlsx
@@ -19,15 +19,102 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="62">
-  <si>
-    <t>土地坐落</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="78">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>share_portion</t>
+  </si>
+  <si>
+    <t>owner</t>
+  </si>
+  <si>
+    <t>register_date</t>
+  </si>
+  <si>
+    <t>register_reason</t>
+  </si>
+  <si>
+    <t>acquire_value</t>
+  </si>
+  <si>
+    <t>property_category</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>臺北市文山區萬芳段三小段06700000地號</t>
+  </si>
+  <si>
+    <t>新北市新店區華城二段01220003地號</t>
+  </si>
+  <si>
+    <t>8分之1</t>
+  </si>
+  <si>
+    <t>70000分之14230</t>
+  </si>
+  <si>
+    <t>李桐豪</t>
+  </si>
+  <si>
+    <t>黃素香</t>
+  </si>
+  <si>
+    <t>83年07月04日</t>
+  </si>
+  <si>
+    <t>96年08月20日</t>
+  </si>
+  <si>
+    <t>買賣</t>
+  </si>
+  <si>
+    <t>貝賣</t>
+  </si>
+  <si>
+    <t>(超過五年）</t>
+  </si>
+  <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>2012-04-25</t>
+  </si>
+  <si>
+    <t>tmpe99a1</t>
+  </si>
+  <si>
+    <t>建物標示</t>
   </si>
   <si>
     <t>面積（平方公尺）</t>
   </si>
   <si>
-    <t>權利範圍’(持分）</t>
+    <t>權利範圍(持分）</t>
   </si>
   <si>
     <t>所有權人</t>
@@ -42,52 +129,13 @@
     <t>取得價額</t>
   </si>
   <si>
-    <t>臺北市文山區萬芳段三小段 0670-0000 地號</t>
-  </si>
-  <si>
-    <t>新北市新店區華城二段 0122-0003 地號</t>
-  </si>
-  <si>
-    <t>8分之1</t>
-  </si>
-  <si>
-    <t>70000分之 14230</t>
-  </si>
-  <si>
-    <t>李桐豪</t>
-  </si>
-  <si>
-    <t>黃素香</t>
-  </si>
-  <si>
-    <t>83年07月 04日</t>
-  </si>
-  <si>
-    <t>96年08月 20日</t>
-  </si>
-  <si>
-    <t>買賣</t>
-  </si>
-  <si>
-    <t>貝賣</t>
-  </si>
-  <si>
-    <t>(超過五年）</t>
-  </si>
-  <si>
-    <t>建物標示</t>
-  </si>
-  <si>
-    <t>權利範圍(持分）</t>
-  </si>
-  <si>
-    <t>臺北市文山區萬芳段三小段 02068-000 建號</t>
-  </si>
-  <si>
-    <t>臺北市文山區萬芳段三小段 02073-000 建號</t>
-  </si>
-  <si>
-    <t>新北市新店區華城二段 00562-000 建號</t>
+    <t>臺北市文山區萬芳段三小段02068000建號</t>
+  </si>
+  <si>
+    <t>臺北市文山區萬芳段三小段02073000建號</t>
+  </si>
+  <si>
+    <t>新北市新店區華城二段00562000建號</t>
   </si>
   <si>
     <t>全部</t>
@@ -108,10 +156,10 @@
     <t>馬自達</t>
   </si>
   <si>
-    <t>96年11月 20日</t>
-  </si>
-  <si>
-    <t>98年12月 11 B</t>
+    <t>96年11月20日</t>
+  </si>
+  <si>
+    <t>98年12月11B</t>
   </si>
   <si>
     <t>存放機構(應敘明分支機構）</t>
@@ -126,28 +174,28 @@
     <t>新臺幣總額或折合新臺幣總額</t>
   </si>
   <si>
-    <t>新店中正郵局（第5 2支 局）</t>
-  </si>
-  <si>
-    <t>曰盛國際商業銀行内湖分 行</t>
+    <t>新店中正郵局（第52支局）</t>
+  </si>
+  <si>
+    <t>曰盛國際商業銀行内湖分行</t>
   </si>
   <si>
     <t>第一商業銀行木柵分行</t>
   </si>
   <si>
-    <t>台北富邦商業銀行木柵分 行</t>
+    <t>台北富邦商業銀行木柵分行</t>
   </si>
   <si>
     <t>臺灣銀行木柵分行</t>
   </si>
   <si>
-    <t>合作金庫商業銀行西門分 行</t>
-  </si>
-  <si>
-    <t>木柵郵局（台北17 0支 局）</t>
-  </si>
-  <si>
-    <t>台北市第九信用合作社木 柵分社</t>
+    <t>合作金庫商業銀行西門分行</t>
+  </si>
+  <si>
+    <t>木柵郵局（台北170支局）</t>
+  </si>
+  <si>
+    <t>台北市第九信用合作社木柵分社</t>
   </si>
   <si>
     <t>台北市木栅區農會信用部</t>
@@ -168,7 +216,7 @@
     <t>財產種類</t>
   </si>
   <si>
-    <t>項/</t>
+    <t>項</t>
   </si>
   <si>
     <t>價額</t>
@@ -177,7 +225,7 @@
     <t>珠寶材料</t>
   </si>
   <si>
-    <t>6，000，000(製作珠寶飾品之 原材料（估計價值））</t>
+    <t>6000000(製作珠寶飾品之原材料（估計價值））</t>
   </si>
   <si>
     <t>債務人</t>
@@ -198,10 +246,10 @@
     <t>抵押</t>
   </si>
   <si>
-    <t>合作金庫銀行西門分行 臺北市萬華區昆明街</t>
-  </si>
-  <si>
-    <t>83年07月 27日</t>
+    <t>合作金庫銀行西門分行臺北市萬華區昆明街</t>
+  </si>
+  <si>
+    <t>83年07月27日</t>
   </si>
   <si>
     <t>公教貸款</t>
@@ -563,13 +611,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -591,57 +639,120 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2">
         <v>237</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M2" s="2">
+        <v>896</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="O2" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C3" s="2">
         <v>1136.93</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="H3" s="2">
         <v>1035000</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M3" s="2">
+        <v>896</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="O3" s="2">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -659,25 +770,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -685,25 +796,25 @@
         <v>20</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="C2" s="2">
         <v>75.73</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -711,25 +822,25 @@
         <v>21</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="C3" s="2">
         <v>47.8</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -737,22 +848,22 @@
         <v>22</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="C4" s="2">
         <v>121.16</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="H4" s="2">
         <v>9765000</v>
@@ -773,22 +884,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -796,19 +907,19 @@
         <v>30</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="C2" s="2">
         <v>2000</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="G2" s="2">
         <v>605000</v>
@@ -819,19 +930,19 @@
         <v>31</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="C3" s="2">
         <v>1600</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="G3" s="2">
         <v>180000</v>
@@ -852,19 +963,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -872,16 +983,16 @@
         <v>46</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F2" s="2">
         <v>1268649</v>
@@ -892,16 +1003,16 @@
         <v>47</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F3" s="2">
         <v>4947008</v>
@@ -912,16 +1023,16 @@
         <v>48</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F4" s="2">
         <v>958141</v>
@@ -932,16 +1043,16 @@
         <v>49</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F5" s="2">
         <v>144288</v>
@@ -952,16 +1063,16 @@
         <v>50</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F6" s="2">
         <v>1203569</v>
@@ -972,16 +1083,16 @@
         <v>51</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F7" s="2">
         <v>1000</v>
@@ -992,16 +1103,16 @@
         <v>52</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F8" s="2">
         <v>3898</v>
@@ -1012,16 +1123,16 @@
         <v>53</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F9" s="2">
         <v>1584595</v>
@@ -1032,16 +1143,16 @@
         <v>54</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F10" s="2">
         <v>7966</v>
@@ -1052,16 +1163,16 @@
         <v>55</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F11" s="2">
         <v>896</v>
@@ -1072,16 +1183,16 @@
         <v>56</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F12" s="2">
         <v>2432</v>
@@ -1092,16 +1203,16 @@
         <v>57</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F13" s="2">
         <v>162138</v>
@@ -1112,16 +1223,16 @@
         <v>58</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F14" s="2">
         <v>82343</v>
@@ -1142,16 +1253,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1159,16 +1270,16 @@
         <v>84</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="C2" s="2">
         <v>40</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -1186,22 +1297,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1209,22 +1320,22 @@
         <v>99</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="E2" s="2">
         <v>313034</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/李桐豪_2012-04-25_財產申報表_tmpe99a1.xlsx
+++ b/legislator/property/output/normal/李桐豪_2012-04-25_財產申報表_tmpe99a1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="58">
   <si>
     <t>name</t>
   </si>
@@ -69,21 +69,39 @@
     <t>total</t>
   </si>
   <si>
+    <t>臺北市文山區萬芳段三小段06700000地號</t>
+  </si>
+  <si>
     <t>新北市新店區華城二段01220003地號</t>
   </si>
   <si>
+    <t>8分之1</t>
+  </si>
+  <si>
     <t>70000分之14230</t>
   </si>
   <si>
+    <t>李桐豪</t>
+  </si>
+  <si>
     <t>黃素香</t>
   </si>
   <si>
+    <t>83年07月04日</t>
+  </si>
+  <si>
     <t>96年08月20日</t>
   </si>
   <si>
+    <t>買賣</t>
+  </si>
+  <si>
     <t>貝賣</t>
   </si>
   <si>
+    <t>(超過五年）</t>
+  </si>
+  <si>
     <t>land</t>
   </si>
   <si>
@@ -93,31 +111,19 @@
     <t>2012-04-25</t>
   </si>
   <si>
-    <t>李桐豪</t>
-  </si>
-  <si>
     <t>tmpe99a1</t>
   </si>
   <si>
     <t>臺北市文山區萬芳段三小段02068000建號</t>
   </si>
   <si>
+    <t>臺北市文山區萬芳段三小段02073000建號</t>
+  </si>
+  <si>
+    <t>新北市新店區華城二段00562000建號</t>
+  </si>
+  <si>
     <t>全部</t>
-  </si>
-  <si>
-    <t>83年07月04日</t>
-  </si>
-  <si>
-    <t>買賣</t>
-  </si>
-  <si>
-    <t>(超過五年）</t>
-  </si>
-  <si>
-    <t>臺北市文山區萬芳段三小段02073000建號</t>
-  </si>
-  <si>
-    <t>新北市新店區華城二段00562000建號</t>
   </si>
   <si>
     <t>中華</t>
@@ -545,7 +551,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q2"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -603,54 +609,107 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="2">
-        <v>1136.93</v>
+        <v>237</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" s="2">
-        <v>1035000</v>
+        <v>24</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M2" s="2">
         <v>896</v>
       </c>
       <c r="N2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O2" s="2">
+        <v>14</v>
+      </c>
+      <c r="P2" s="2">
+        <v>0.125</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>29.625</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="1">
+        <v>15</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1136.93</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="O2" s="2">
+      <c r="H3" s="2">
+        <v>1035000</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M3" s="2">
+        <v>896</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O3" s="2">
         <v>15</v>
       </c>
-      <c r="P2" s="2">
+      <c r="P3" s="2">
         <v>0.203285714285714</v>
       </c>
-      <c r="Q2" s="2">
+      <c r="Q3" s="2">
         <v>231.121627142857</v>
       </c>
     </row>
@@ -661,85 +720,219 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1" s="1">
-        <v>75.73</v>
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>31</v>
       </c>
       <c r="C2" s="2">
-        <v>47.8</v>
+        <v>75.73</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="L2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" s="2">
+        <v>896</v>
+      </c>
+      <c r="N2" s="2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="O2" s="2">
+        <v>20</v>
+      </c>
+      <c r="P2" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>75.73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C3" s="2">
+        <v>47.8</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M3" s="2">
+        <v>896</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O3" s="2">
+        <v>21</v>
+      </c>
+      <c r="P3" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>47.8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="1">
+        <v>22</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="2">
         <v>121.16</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="2">
+        <v>9765000</v>
+      </c>
+      <c r="I4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" s="2" t="s">
+      <c r="J4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H3" s="2">
-        <v>9765000</v>
+      <c r="L4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M4" s="2">
+        <v>896</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O4" s="2">
+        <v>22</v>
+      </c>
+      <c r="P4" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>121.16</v>
       </c>
     </row>
   </sheetData>
@@ -748,6 +941,419 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="B1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2000</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="1">
+        <v>605000</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>30</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="2">
+        <v>2000</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="2">
+        <v>605000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
+        <v>31</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1600</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="2">
+        <v>180000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="B1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="1">
+        <v>1268649</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1">
+        <v>46</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="2">
+        <v>1268649</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1">
+        <v>47</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="2">
+        <v>4947008</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1">
+        <v>48</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="2">
+        <v>958141</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1">
+        <v>49</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="2">
+        <v>144288</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1">
+        <v>50</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="2">
+        <v>1203569</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1">
+        <v>51</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1">
+        <v>52</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="2">
+        <v>3898</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1">
+        <v>53</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="2">
+        <v>1584595</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1">
+        <v>54</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="2">
+        <v>7966</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1">
+        <v>55</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="2">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1">
+        <v>56</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" s="2">
+        <v>2432</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="1">
+        <v>57</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" s="2">
+        <v>162138</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="1">
+        <v>58</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" s="2">
+        <v>82343</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="B1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="1">
+        <v>40</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1">
+        <v>84</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="2">
+        <v>40</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G2"/>
   <sheetViews>
@@ -757,375 +1363,45 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C1" s="1">
-        <v>2000</v>
+        <v>54</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>34</v>
+        <v>55</v>
+      </c>
+      <c r="E1" s="1">
+        <v>313034</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G1" s="1">
-        <v>605000</v>
+        <v>56</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>31</v>
+        <v>99</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C2" s="2">
-        <v>1600</v>
+        <v>54</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>36</v>
+        <v>55</v>
+      </c>
+      <c r="E2" s="2">
+        <v>313034</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G2" s="2">
-        <v>180000</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="B1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F1" s="1">
-        <v>1268649</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="1">
-        <v>47</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2" s="2">
-        <v>4947008</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="1">
-        <v>48</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" s="2">
-        <v>958141</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="1">
-        <v>49</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" s="2">
-        <v>144288</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="1">
-        <v>50</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="2">
-        <v>1203569</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="1">
-        <v>51</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" s="2">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="1">
-        <v>52</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" s="2">
-        <v>3898</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="1">
-        <v>53</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" s="2">
-        <v>1584595</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="1">
-        <v>54</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="2">
-        <v>7966</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="1">
-        <v>55</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" s="2">
-        <v>896</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="1">
         <v>56</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F11" s="2">
-        <v>2432</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="1">
+      <c r="G2" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F12" s="2">
-        <v>162138</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="1">
-        <v>58</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F13" s="2">
-        <v>82343</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:E1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="2:5">
-      <c r="B1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C1" s="1">
-        <v>40</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:G1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="2:7">
-      <c r="B1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E1" s="1">
-        <v>313034</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/李桐豪_2012-04-25_財產申報表_tmpe99a1.xlsx
+++ b/legislator/property/output/normal/李桐豪_2012-04-25_財產申報表_tmpe99a1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="59">
   <si>
     <t>name</t>
   </si>
@@ -126,13 +126,16 @@
     <t>全部</t>
   </si>
   <si>
+    <t>capacity</t>
+  </si>
+  <si>
     <t>中華</t>
   </si>
   <si>
+    <t>馬自達</t>
+  </si>
+  <si>
     <t>96年11月20日</t>
-  </si>
-  <si>
-    <t>馬自達</t>
   </si>
   <si>
     <t>98年12月11B</t>
@@ -942,38 +945,59 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="1">
-        <v>2000</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="1">
-        <v>605000</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>30</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C2" s="2">
         <v>2000</v>
@@ -982,7 +1006,7 @@
         <v>20</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>24</v>
@@ -990,8 +1014,29 @@
       <c r="G2" s="2">
         <v>605000</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" s="2">
+        <v>896</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N2" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>31</v>
       </c>
@@ -1005,13 +1050,34 @@
         <v>21</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>24</v>
       </c>
       <c r="G3" s="2">
         <v>180000</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L3" s="2">
+        <v>896</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N3" s="2">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1029,13 +1095,13 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>20</v>
@@ -1049,13 +1115,13 @@
         <v>46</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>20</v>
@@ -1069,13 +1135,13 @@
         <v>47</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>41</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>20</v>
@@ -1089,13 +1155,13 @@
         <v>48</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>20</v>
@@ -1109,13 +1175,13 @@
         <v>49</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>20</v>
@@ -1129,13 +1195,13 @@
         <v>50</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>20</v>
@@ -1149,13 +1215,13 @@
         <v>51</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>20</v>
@@ -1169,13 +1235,13 @@
         <v>52</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>21</v>
@@ -1189,13 +1255,13 @@
         <v>53</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>21</v>
@@ -1209,13 +1275,13 @@
         <v>54</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>21</v>
@@ -1229,13 +1295,13 @@
         <v>55</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>21</v>
@@ -1249,13 +1315,13 @@
         <v>56</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>21</v>
@@ -1269,13 +1335,13 @@
         <v>57</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>21</v>
@@ -1289,13 +1355,13 @@
         <v>58</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>21</v>
@@ -1319,7 +1385,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C1" s="1">
         <v>40</v>
@@ -1328,7 +1394,7 @@
         <v>21</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1336,7 +1402,7 @@
         <v>84</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C2" s="2">
         <v>40</v>
@@ -1345,7 +1411,7 @@
         <v>21</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1363,22 +1429,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E1" s="1">
         <v>313034</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1386,22 +1452,22 @@
         <v>99</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E2" s="2">
         <v>313034</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/李桐豪_2012-04-25_財產申報表_tmpe99a1.xlsx
+++ b/legislator/property/output/normal/李桐豪_2012-04-25_財產申報表_tmpe99a1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="61">
   <si>
     <t>name</t>
   </si>
@@ -126,6 +126,9 @@
     <t>全部</t>
   </si>
   <si>
+    <t>building</t>
+  </si>
+  <si>
     <t>capacity</t>
   </si>
   <si>
@@ -139,6 +142,9 @@
   </si>
   <si>
     <t>98年12月11B</t>
+  </si>
+  <si>
+    <t>car</t>
   </si>
   <si>
     <t>新店中正郵局（第52支局）</t>
@@ -805,7 +811,7 @@
         <v>26</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>28</v>
@@ -858,7 +864,7 @@
         <v>26</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>28</v>
@@ -911,7 +917,7 @@
         <v>9765000</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>28</v>
@@ -956,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -997,7 +1003,7 @@
         <v>30</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C2" s="2">
         <v>2000</v>
@@ -1006,7 +1012,7 @@
         <v>20</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>24</v>
@@ -1015,7 +1021,7 @@
         <v>605000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>28</v>
@@ -1041,7 +1047,7 @@
         <v>31</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C3" s="2">
         <v>1600</v>
@@ -1050,7 +1056,7 @@
         <v>21</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>24</v>
@@ -1059,7 +1065,7 @@
         <v>180000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>28</v>
@@ -1095,13 +1101,13 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>20</v>
@@ -1115,13 +1121,13 @@
         <v>46</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>20</v>
@@ -1135,13 +1141,13 @@
         <v>47</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="D3" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>20</v>
@@ -1155,13 +1161,13 @@
         <v>48</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>42</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>20</v>
@@ -1175,13 +1181,13 @@
         <v>49</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>20</v>
@@ -1195,13 +1201,13 @@
         <v>50</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>20</v>
@@ -1215,13 +1221,13 @@
         <v>51</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>20</v>
@@ -1235,13 +1241,13 @@
         <v>52</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>21</v>
@@ -1255,13 +1261,13 @@
         <v>53</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>21</v>
@@ -1275,13 +1281,13 @@
         <v>54</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>21</v>
@@ -1295,13 +1301,13 @@
         <v>55</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>21</v>
@@ -1315,13 +1321,13 @@
         <v>56</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>42</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>21</v>
@@ -1335,13 +1341,13 @@
         <v>57</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>21</v>
@@ -1355,13 +1361,13 @@
         <v>58</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>21</v>
@@ -1385,7 +1391,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C1" s="1">
         <v>40</v>
@@ -1394,7 +1400,7 @@
         <v>21</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1402,7 +1408,7 @@
         <v>84</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C2" s="2">
         <v>40</v>
@@ -1411,7 +1417,7 @@
         <v>21</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1429,22 +1435,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E1" s="1">
         <v>313034</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1452,22 +1458,22 @@
         <v>99</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E2" s="2">
         <v>313034</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/李桐豪_2012-04-25_財產申報表_tmpe99a1.xlsx
+++ b/legislator/property/output/normal/李桐豪_2012-04-25_財產申報表_tmpe99a1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="65">
   <si>
     <t>name</t>
   </si>
@@ -147,43 +147,55 @@
     <t>car</t>
   </si>
   <si>
+    <t>bank</t>
+  </si>
+  <si>
+    <t>deposit_type</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
     <t>新店中正郵局（第52支局）</t>
   </si>
   <si>
+    <t>曰盛國際商業銀行内湖分行</t>
+  </si>
+  <si>
+    <t>第一商業銀行木柵分行</t>
+  </si>
+  <si>
+    <t>台北富邦商業銀行木柵分行</t>
+  </si>
+  <si>
+    <t>臺灣銀行木柵分行</t>
+  </si>
+  <si>
+    <t>合作金庫商業銀行西門分行</t>
+  </si>
+  <si>
+    <t>木柵郵局（台北170支局）</t>
+  </si>
+  <si>
+    <t>台北市第九信用合作社木柵分社</t>
+  </si>
+  <si>
+    <t>台北市木栅區農會信用部</t>
+  </si>
+  <si>
+    <t>永豐商業銀行西松分行</t>
+  </si>
+  <si>
     <t>活期儲蓄存款</t>
   </si>
   <si>
+    <t>支票存款</t>
+  </si>
+  <si>
     <t>新臺幣</t>
   </si>
   <si>
-    <t>曰盛國際商業銀行内湖分行</t>
-  </si>
-  <si>
-    <t>第一商業銀行木柵分行</t>
-  </si>
-  <si>
-    <t>台北富邦商業銀行木柵分行</t>
-  </si>
-  <si>
-    <t>臺灣銀行木柵分行</t>
-  </si>
-  <si>
-    <t>合作金庫商業銀行西門分行</t>
-  </si>
-  <si>
-    <t>木柵郵局（台北170支局）</t>
-  </si>
-  <si>
-    <t>台北市第九信用合作社木柵分社</t>
-  </si>
-  <si>
-    <t>台北市木栅區農會信用部</t>
-  </si>
-  <si>
-    <t>永豐商業銀行西松分行</t>
-  </si>
-  <si>
-    <t>支票存款</t>
+    <t>deposit</t>
   </si>
   <si>
     <t>珠寶材料</t>
@@ -1093,13 +1105,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>42</v>
       </c>
@@ -1110,24 +1122,45 @@
         <v>44</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1" s="1">
-        <v>1268649</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>46</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>20</v>
@@ -1135,19 +1168,40 @@
       <c r="F2" s="2">
         <v>1268649</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="2">
+        <v>896</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M2" s="2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>47</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>20</v>
@@ -1155,19 +1209,40 @@
       <c r="F3" s="2">
         <v>4947008</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" s="2">
+        <v>896</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M3" s="2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>48</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>20</v>
@@ -1175,19 +1250,40 @@
       <c r="F4" s="2">
         <v>958141</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" s="2">
+        <v>896</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M4" s="2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>49</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>20</v>
@@ -1195,19 +1291,40 @@
       <c r="F5" s="2">
         <v>144288</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" s="2">
+        <v>896</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M5" s="2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>50</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>20</v>
@@ -1215,19 +1332,40 @@
       <c r="F6" s="2">
         <v>1203569</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K6" s="2">
+        <v>896</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M6" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>51</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>20</v>
@@ -1235,19 +1373,40 @@
       <c r="F7" s="2">
         <v>1000</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="G7" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K7" s="2">
+        <v>896</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M7" s="2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>52</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>21</v>
@@ -1255,19 +1414,40 @@
       <c r="F8" s="2">
         <v>3898</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="G8" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K8" s="2">
+        <v>896</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M8" s="2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>53</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>21</v>
@@ -1275,19 +1455,40 @@
       <c r="F9" s="2">
         <v>1584595</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="G9" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K9" s="2">
+        <v>896</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M9" s="2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>54</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>21</v>
@@ -1295,19 +1496,40 @@
       <c r="F10" s="2">
         <v>7966</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="G10" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K10" s="2">
+        <v>896</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M10" s="2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>55</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>21</v>
@@ -1315,19 +1537,40 @@
       <c r="F11" s="2">
         <v>896</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="G11" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K11" s="2">
+        <v>896</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M11" s="2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>56</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>21</v>
@@ -1335,19 +1578,40 @@
       <c r="F12" s="2">
         <v>2432</v>
       </c>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="G12" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K12" s="2">
+        <v>896</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M12" s="2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>57</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>21</v>
@@ -1355,25 +1619,67 @@
       <c r="F13" s="2">
         <v>162138</v>
       </c>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="G13" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K13" s="2">
+        <v>896</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M13" s="2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>58</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F14" s="2">
         <v>82343</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K14" s="2">
+        <v>896</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M14" s="2">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -1391,7 +1697,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C1" s="1">
         <v>40</v>
@@ -1400,7 +1706,7 @@
         <v>21</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1408,7 +1714,7 @@
         <v>84</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C2" s="2">
         <v>40</v>
@@ -1417,7 +1723,7 @@
         <v>21</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1435,22 +1741,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E1" s="1">
         <v>313034</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1458,22 +1764,22 @@
         <v>99</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E2" s="2">
         <v>313034</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/李桐豪_2012-04-25_財產申報表_tmpe99a1.xlsx
+++ b/legislator/property/output/normal/李桐豪_2012-04-25_財產申報表_tmpe99a1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="67">
   <si>
     <t>name</t>
   </si>
@@ -198,10 +198,16 @@
     <t>deposit</t>
   </si>
   <si>
+    <t>quantity</t>
+  </si>
+  <si>
     <t>珠寶材料</t>
   </si>
   <si>
     <t>6000000(製作珠寶飾品之原材料（估計價值））</t>
+  </si>
+  <si>
+    <t>otherbonds</t>
   </si>
   <si>
     <t>抵押</t>
@@ -1689,32 +1695,53 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:12">
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C1" s="1">
-        <v>40</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+        <v>15</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="1">
         <v>84</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C2" s="2">
         <v>40</v>
@@ -1723,7 +1750,28 @@
         <v>21</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="2">
+        <v>896</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L2" s="2">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -1741,22 +1789,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E1" s="1">
         <v>313034</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1764,22 +1812,22 @@
         <v>99</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E2" s="2">
         <v>313034</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/李桐豪_2012-04-25_財產申報表_tmpe99a1.xlsx
+++ b/legislator/property/output/normal/李桐豪_2012-04-25_財產申報表_tmpe99a1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="70">
   <si>
     <t>name</t>
   </si>
@@ -207,7 +207,13 @@
     <t>6000000(製作珠寶飾品之原材料（估計價值））</t>
   </si>
   <si>
-    <t>otherbonds</t>
+    <t>antique</t>
+  </si>
+  <si>
+    <t>species</t>
+  </si>
+  <si>
+    <t>debtor</t>
   </si>
   <si>
     <t>抵押</t>
@@ -220,6 +226,9 @@
   </si>
   <si>
     <t>公教貸款</t>
+  </si>
+  <si>
+    <t>debt</t>
   </si>
 </sst>
 </file>
@@ -1781,53 +1790,95 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
         <v>63</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E1" s="1">
-        <v>313034</v>
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>65</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>99</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E2" s="2">
         <v>313034</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" s="2">
+        <v>896</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N2" s="2">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
